--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf10-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Fgfrl1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.29275283261864</v>
+        <v>1.422753333333333</v>
       </c>
       <c r="H2">
-        <v>1.29275283261864</v>
+        <v>4.26826</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.75663530381854</v>
+        <v>0.6019246666666667</v>
       </c>
       <c r="N2">
-        <v>5.75663530381854</v>
+        <v>1.805774</v>
       </c>
       <c r="O2">
-        <v>0.6291366202852809</v>
+        <v>0.05746655956902961</v>
       </c>
       <c r="P2">
-        <v>0.6291366202852809</v>
+        <v>0.0574665595690296</v>
       </c>
       <c r="Q2">
-        <v>7.441906595363883</v>
+        <v>0.8563903259155555</v>
       </c>
       <c r="R2">
-        <v>7.441906595363883</v>
+        <v>7.707512933239999</v>
       </c>
       <c r="S2">
-        <v>0.6291366202852809</v>
+        <v>0.05746655956902961</v>
       </c>
       <c r="T2">
-        <v>0.6291366202852809</v>
+        <v>0.0574665595690296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.29275283261864</v>
+        <v>1.422753333333333</v>
       </c>
       <c r="H3">
-        <v>1.29275283261864</v>
+        <v>4.26826</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +611,158 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.39342069070965</v>
+        <v>5.794889</v>
       </c>
       <c r="N3">
-        <v>3.39342069070965</v>
+        <v>17.384667</v>
       </c>
       <c r="O3">
-        <v>0.3708633797147191</v>
+        <v>0.5532458667270895</v>
       </c>
       <c r="P3">
-        <v>0.3708633797147191</v>
+        <v>0.5532458667270894</v>
       </c>
       <c r="Q3">
-        <v>4.386854210181601</v>
+        <v>8.244697641046667</v>
       </c>
       <c r="R3">
-        <v>4.386854210181601</v>
+        <v>74.20227876941999</v>
       </c>
       <c r="S3">
-        <v>0.3708633797147191</v>
+        <v>0.5532458667270895</v>
       </c>
       <c r="T3">
-        <v>0.3708633797147191</v>
+        <v>0.5532458667270894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.422753333333333</v>
+      </c>
+      <c r="H4">
+        <v>4.26826</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.3673473333333333</v>
+      </c>
+      <c r="N4">
+        <v>1.102042</v>
+      </c>
+      <c r="O4">
+        <v>0.03507114524883653</v>
+      </c>
+      <c r="P4">
+        <v>0.03507114524883652</v>
+      </c>
+      <c r="Q4">
+        <v>0.522644642991111</v>
+      </c>
+      <c r="R4">
+        <v>4.70380178692</v>
+      </c>
+      <c r="S4">
+        <v>0.03507114524883653</v>
+      </c>
+      <c r="T4">
+        <v>0.03507114524883652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.422753333333333</v>
+      </c>
+      <c r="H5">
+        <v>4.26826</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.710185666666666</v>
+      </c>
+      <c r="N5">
+        <v>11.130557</v>
+      </c>
+      <c r="O5">
+        <v>0.3542164284550445</v>
+      </c>
+      <c r="P5">
+        <v>0.3542164284550444</v>
+      </c>
+      <c r="Q5">
+        <v>5.278679024535555</v>
+      </c>
+      <c r="R5">
+        <v>47.50811122082</v>
+      </c>
+      <c r="S5">
+        <v>0.3542164284550445</v>
+      </c>
+      <c r="T5">
+        <v>0.3542164284550444</v>
       </c>
     </row>
   </sheetData>
